--- a/concejos.xlsx
+++ b/concejos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC912934-1795-461E-8D69-74CCFF3B6716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0933BA2-995E-4A9D-BF39-E9677DB21489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{B5B5E4B3-2B2D-46BE-A797-8A9E6A587525}"/>
   </bookViews>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
   <si>
-    <t>Concejo</t>
-  </si>
-  <si>
-    <t>Población</t>
-  </si>
-  <si>
-    <t>Zona</t>
-  </si>
-  <si>
-    <t>Paisaje_protegido</t>
-  </si>
-  <si>
     <t>Allande</t>
   </si>
   <si>
@@ -302,6 +290,18 @@
   </si>
   <si>
     <t>Yernes y Tameza</t>
+  </si>
+  <si>
+    <t>concejo</t>
+  </si>
+  <si>
+    <t>población</t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>paisaje_protegido</t>
   </si>
 </sst>
 </file>
@@ -1165,1115 +1165,1115 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1615</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>603</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>75518</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1437</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1679</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1482</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5839</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1057</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1969</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>11596</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>469</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>10177</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>22103</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>3342</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>3205</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>15612</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>4922</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>881</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>3760</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>268313</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>10470</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>9616</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>815</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>1207</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>1062</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>37978</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>12355</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>10312</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>13948</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>13524</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>36195</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>2555</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>1887</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>8322</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>734</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>217584</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>5315</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>1227</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>6875</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>572</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>7984</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>707</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>1187</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>1839</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>1741</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>5688</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>1837</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>1848</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>4900</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>15431</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>421</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>449</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>1254</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>52194</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>814</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>3800</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>3726</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>602</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>1554</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>8769</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>11394</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>3926</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>15000</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>1180</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B79">
         <v>1207</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
